--- a/file/TGE-321-YilanResort.xlsx
+++ b/file/TGE-321-YilanResort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B13644-B987-ED4A-A231-14FCA170E771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1228717-2566-DA48-8441-A0D9699F2DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="2000" windowWidth="38980" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="19640" yWindow="2540" windowWidth="38980" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="204">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,9 +92,6 @@
     <t>06</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -152,17 +146,698 @@
     <t>26</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宜蘭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外澳海灘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭城鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘭陽博物館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山島賞鯨&amp;登島</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望龍埤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員山鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜊埤湖(落羽松)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幾米公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福轉運站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭文學館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭設治紀念館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五峰旗瀑布風景區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湯圍溝溫泉公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礁溪溫泉公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 林美石磐步道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍潭湖風景區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礁溪鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬山河自行車道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生態綠舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新寮瀑布步道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬山鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅東夜市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅東運動公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅東鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水地熱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳩之澤溫泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大同鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武荖坑風景區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇澳鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內埤海灘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國立傳統藝術中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五結鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>外澳海灘又被稱為港澳海灘或港澳沙灘，位於當年船隻雲集的烏石港之外，因此稱為外澳。外澳海灘在烏石港的北面，擁有廣大平坦而乾淨的沙灘，一波波潔白的浪花打上岸來，隱約可見遠方的龜山島，是親子戲水與衝浪客喜歡的海域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+宜蘭縣頭城鎮外澳里濱海路2段6號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全年開放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-03.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-04.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-05.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-06.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-07.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-09.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-10.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-11.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-12.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-13.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-15.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-16.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-17.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-18.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-19.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-20.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-21.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-22.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-23.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-24.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-25.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-26.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-3202-YilanResort-30.jpg</t>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/388</t>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/321</t>
+  </si>
+  <si>
+    <t>蘭陽博物館是一座與大地共生的建築，建築主體建造在烏石港礁遺址的西北側，以便完整保留濕地的自然生態，因特殊的建築外觀，成為宜蘭的著名地標。
+&lt;br&gt;&lt;br&gt;
+主建築物融入北關海岸一帶常見的單面山的形體。也為了呈現蘭陽平原四季的田野色調，以韋瓦第的四季主旋律做為發想，外牆採用有質感的石材，做排列組合，仿造單面山的岩石紋理，並隨著四季與天色的光影變化而有不同的色調。
+ &lt;br&gt;&lt;br&gt;
+走在蘭陽博物館的走道上，抬頭看見館徽，館徽以葛瑪蘭族的傳統木刻人形圖案為設計理念，表達著「人和自然的和諧共生」及「人與歷史的聯想」。在館內常設展主題結合建築特色，由上而下分別設立山之層、平原層、海之層、時光廊，藉由這些展覽來表現宜蘭的地理環境、人文歷史以及豐富的自然生態。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣頭城鎮青雲路三段 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9779700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">週四至週二:9:00~17:00PM(售票時間:09:00-16:30)2. 休館日: 每週三(若逢國定假日照常開放) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/348</t>
+  </si>
+  <si>
+    <t>無論走陸路或海陸，只要看到龜山島，就知道宜蘭到了。位在宜蘭縣頭城鎮海岸以東約十公里處，是宜蘭縣縣屬島嶼之中最大、也是唯一有人居住的龜山島，也是台灣地區目前尚存的活火山。龜山島因其型似浮龜而得名，自民國七十七年解除戒嚴後，在宜蘭縣政府及地方民意代表多年積極努力之下，行政院於民國八十八年將龜山島納為東北角暨宜蘭海岸國家風景區內。 依龜山島人文及生態資源特性，規畫成為兼具知性及感性之海上生態公園，藉由遊客容納量的管制，減少旅遊環境衝突，並結合鄰近海域賞鯨活動，成為北部藍色公路熱門的旅遊景點。龜山島有一個海底世界，在熱騰騰的硫磺及強酸的環境之下，還有成千上萬的螃蟹生存著，成為一個罕見現象。 龜山島上著名的美景龜湖，又名龜尾潭，原來是一個淡水湖，後來島上居民引海水進湖，本希望成為一個漁港，但是居民每次築堤都被颱風吹垮而堵住，所以現在是鹹淡各半的湖泊。湖的對岸有一座觀音像，安詳的守護著龜尾潭及居民。從島上駐軍營往前望去，山勢陡峭而且綠意盎然，山巒稜線分明，猶如一位美人仰天，還可以清楚的看見美人的形態，讓人讚嘆大自然的巧奪天工。龜山島的末端為一道鵝卵石長灘，因為受風向和潮水的影響，尾端會隨著季風而南北向移動，俗稱「靈龜擺尾」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣頭城鎮海岸以東約10公里處 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9780727</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲申請登島者請於登島日前20至3天，以網路方式向交通部觀光局東北角暨宜蘭海岸國家風景區管理處申請</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/410</t>
+  </si>
+  <si>
+    <t>望龍埤又名軟埤，坐落於宜蘭員山鄉枕山村湖山國小的後處。在數百年前因山洪爆發的關係，在大礁溪山麓而自然形成的一座湖泊，因望龍埤屬於山中湖泊，湖水與當地居民生活有相關，因此地方耆老從古諺中取名望龍埤，希望雨水豐足。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣員山鄉枕山村坡城路 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/359</t>
+  </si>
+  <si>
+    <t>蜊埤湖位於員山福園的旁邊，在湖上建造一座追思橋，因高處眺望湖面形狀像張開嘴的蛤蜊，所以命名為蜊埤湖。
+蜊埤湖的湖畔種植了落羽松和銀杏，每逢秋冬的季節時，落羽松逐漸轉紅，展現橙黃、紅色那樣繽紛的色彩，倒映在廣大的湖面上顯得格外浪漫，湖上悠游的綠頭鴨多了幾分愜意之感，令人彷彿置身於國外的美景裡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+宜蘭縣員山鄉蜊埤路11號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/232</t>
+  </si>
+  <si>
+    <t>當繪本走進了現實世界，你曾有想過他會是長什麼樣子嗎？在宜蘭火車附近的幾米廣場，終於圓了幾米粉絲的夢想。
+&lt;br&gt;&lt;br&gt;
+幾米廣場原本是鐵路舊宿舍區，後來設置成國道客運的轉運中心，而宜蘭正是知名繪本家幾米的故鄉，因此以「記憶片刻風景」為主題，打造成全台灣第一座幾米主題廣場，同時也保留原有的歷史建築與老樹。
+ &lt;br&gt;&lt;br&gt;
+在這裡，你可以看見《向左走，向右走》的男女主角匆匆地往各自的方向離去，或是跟著《星空》裡的小男孩、小女孩，一起等著那一輛永遠不會來的公車，以及《地下鐵》中承載著旅人記憶的行李箱……出現在幾米公園裡的每一個裝置藝術，都讓人有無限的想像空間與感動。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣宜蘭市宜興路一段240號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/460</t>
+  </si>
+  <si>
+    <t>幸福轉運站位於宜蘭火車站附近，走路約5分鐘的路程，鄰近的地點有幾米公園、鋼造樹木的丟丟噹森林。
+在以前是國光客運的閒置空間，後來改建為幸福轉運站。而整個園區用幾米《忘記親一下》作為主題，內有彩繪廢棄的公車、老舊的外牆，來成為新的裝置藝術。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+宜蘭縣宜蘭市宜蘭市宜興路一段117號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏令時間(5-10月)每週四至週二上午9:30至下午6:00
+冬令時間(11-4月)每週四至週二上午9:00至下午5:30
+休館日：每週三（如遇國定例假日照常開放）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/311</t>
+  </si>
+  <si>
+    <t>宜蘭文學館坐落於宜蘭市區，旁邊緊鄰著宜蘭設治紀念館。帶有濃厚日式建築風格的宜蘭文學館，前身是舊農校的校長宿舍，後來經歷整修、恢復原貌後，成為宜蘭音樂館。為了要讓更多人了解蘭陽文學，如今改為宜蘭文學館。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣宜蘭市舊城南路縣府二巷19號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-9324349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00-17:00，週一公休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/312</t>
+  </si>
+  <si>
+    <t>坐落於宜蘭市區的宜蘭設治紀念館，由日治時期宜蘭廳長西鄉菊次郎所籌建，原為宜蘭縣歷任行政首長官邸，本館主要呈現宜蘭設官治理的歷史發展。1997年經過專家與匠師的規劃與修護，整建後對外開放參觀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+宜蘭縣宜蘭市舊城南路力行三巷3號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9326664</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00-17:00，休館時間：週一、每月最後一天、除夕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/85</t>
+  </si>
+  <si>
+    <t>五峰旗山位於宜蘭縣礁溪鄉西側，雪山山脈與蘭陽平原的交接處，遠遠望去，突出於平地的五座山巒異常醒目，宛如戲劇武生背上的五面旌旗，是礁溪鄉著名的風景區，峻峭的五奇峰，海拔雖只有 500 公尺，但山勢陡峭，絕壁橫生，此種峭壁絕巘的地形，乃是由十分堅硬的四稜砂岩地層所構成。山峰間有登山步道可以攀爬，步道盡頭是三層瀑布頂層，瀑布由狹谷直瀉山岩，瀑布全長約 100公尺，共分為三層。上層瀑布約 5 0 公尺，自峽谷奔流而下，穿過山岩的水流再形成中層瀑布由山壁中穿出，約 30 公尺，氣勢磅礡，立於「觀瀑亭」以極佳之視野近賞急瀉之姿，亦可遠眺翠綠山谷，下層瀑布約 20 公尺，自然形成小水潭，潭水清澈順流而下，水質清澈，清涼無比。炎炎夏季前來避暑，讓冰冷泉水清心滌慮。風景區闢有三層攔砂壩，是夏季嬉水的好去處。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣礁溪鄉五峰路 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9880940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/92</t>
+  </si>
+  <si>
+    <t>湯圍溝溫泉公園位於德陽路與仁愛路的中間，又名「燒水溝」的湯圍溫泉溝，是礁溪溫泉分部的中心，由於是自然湧出的泉水匯聚成流、熱氣蒸騰，所以溫度較高。為了創造湯圍溝歷史空間新風貌，宜蘭縣政府將此區規劃為溫泉公園，精心設計的水岸空間與景觀涼亭，以及充滿禪意的檜木風呂與半戶外泡腳池，也有小橋流水的造景與茂盛又活力的花草樹木，來到湯圍溝溫泉公園，不要忘了拍照留念喔，這裡美麗的景物一定可以讓你想一拍再拍！重新規劃利用後的湯圍溝讓在地民眾能重溫舊有的泡湯記憶，也讓外來遊客可享受自然舒適的檜木溫泉；也設有男女公共浴池，是相當完備的旅遊景點，另外也可欣賞街頭藝人精彩的表演以及享受溫泉魚SPA，享受礁溪這夜間活動的新據點。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+宜蘭縣礁溪鄉德陽路99之11號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9874882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00~12:30、13:00~17:00、17:30~24:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/97</t>
+  </si>
+  <si>
+    <t>宜蘭縣政府繼建置湯圍溝溫泉公園，提供了遊客休息泡湯的好去處後，又於礁溪溫泉會館遊客中心現址，規劃設計礁溪溫泉公園，除保留原有自然生態的特殊環境及傳統生活型態，也建置了以日本和風式設計、約可容納200人的泡湯池，為礁溪觀光旅遊增添一處新景點。礁溪溫泉屬弱鹼性的碳酸氫鈉泉，水溫約在攝氏50度，色清無味，浸泡後，皮膚光滑柔嫩，一點也不黏膩，對腸胃、皮膚都有良好的調養作用，有「美人湯」美譽，堪稱台灣溫泉之極品，想要保養身體的遊客一定要來享受！溫泉公園內設有旅遊服務中心，提供來到宜蘭的旅客縣內相關旅遊觀光資訊諮詢服務；溫泉公園的設計，除有保留自然生態的景觀外，並規劃建置日本和風設計風格之溫泉風呂，讓民眾一年四季都能享受溫泉洗浴的樂趣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣礁溪鄉公園路16號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-9872998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9點－22點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/100</t>
+  </si>
+  <si>
+    <t>位於礁溪鄉林美村的林美石磐步道是一個環狀的步道，名稱是由「林美」、「石磐」所組成的。「林美」是指當地村名(礁溪鄉林美村)，當地早期的地名為「林尾」，後來才改為「林美」。「石磐」則是指「石磐瀑布」，步道全程1.7公里，有凹谷、溪流、瀑布、石磐、原始林相與筆筒樹林，沿途景色多樣且生態豐富，此步道生態豐富，路線平緩，可戲水賞瀑，沿途山宗、筆筒樹滿佈山野，壯觀的大瀑布與小水潭分布其間，自然景觀野趣十足。步道途中設有觀景平台，讓遊客可以在觀景平台休息時，也能鳥瞰整個蘭陽平原，大飽眼福。不論是老年人、年輕人或小朋友，都適合行走在林蔭步道下，吸收清新自然的林間植物芬多精，有種說不出的舒適感，伴隨著大自然的流水聲，讓人放鬆舒暢，心曠神怡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣礁溪鄉林美村 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9545114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/104</t>
+  </si>
+  <si>
+    <t>龍潭湖，舊名為「大埤湖」，俗稱「大陂湖」。為昔日「蘭陽十二勝」之一，也是宜蘭五大名湖中面積最大的湖泊，保留著原始自然的樸實風貌，位於礁溪鄉龍潭村，距離宜蘭市約6公里，交通便利。此湖三面環山，面積將近20公頃，非常遼闊，水深4.5丈，寺廟環山林立，暮鼓晨鐘，清澈的水質，湖面如明鏡通徹，泛漾青山倒影，景緻宜人，湖中可以搖槳泛舟尋幽，湖光山色悠遠寧靜，環湖道路漫步或慢跑，水波與矯健身影為伴，看做遊龍出水亦無不可。黃龍山黃帝神宮與漳福廟等等就在湖旁，其中漳福廟是龍潭村居民的信仰中心，廟入口處附近有一棵約和新廟同齡的樹木，樹下還另有石造的涼椅和石桌，供漳福路一帶居民乘涼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣礁溪鄉礁溪鄉龍潭村環湖路1號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9280141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/345</t>
+  </si>
+  <si>
+    <t>坐落於冬山火車站旁的冬山河自行車道，交通十分方便，容易租借自行車，是一條平易親人、四季都適合騎自行車的車道。
+冬山河自行車道，以冬山火車站作為起點到五結大閘門為終點，沿途經過冬山森林公園、清水橋、珍珠休閒農業區、冬山河親公園、國立傳統藝術中心等等著名景點。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣冬山鄉冬山河兩旁 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/259</t>
+  </si>
+  <si>
+    <t>冬山河生態綠舟位於宜蘭冬山河的中上游，是擁有廣大腹地的公園，面積(含水域)約18公頃，視野遼闊，以森林主題為主，將冬山河融為一體自然型態的森林公園，並創造出豐富的自然生態。
+&lt;br&gt;&lt;br&gt;
+在正式開園之前，在這塊土地上陸陸續續調查出很多物種，像鳥類、魚類、蛙類、爬蟲類等，這裡就是野生動植物的家，而為了保護他們的棲息地與生活環境，需減少人為干擾，並禁止騎自行車、放風箏、釣魚等造成破壞或影響的行為。
+冬山河生態綠舟的東岸保有原生植被，成為侯鳥的棲息地，不過除了賞鳥、搭船探索生態以外，園內設有冬山河鐵路橋、大地遊戲區、賞鳥平台、步道等設施，是具有休閒與自然生態教育意義的森林公園。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣冬山鄉冬山路二段172號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9591314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森之脈橋後方生態園區18：00關閉不開放
+森之脈橋管制門前(大地遊戲區)夜間免費開放至22：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/394</t>
+  </si>
+  <si>
+    <t>同位於中山休閒農業區的新寮瀑布步道，全程有茂密的自然林、清澈的溪流為伴，還有250公尺瀑布，景致怡人。沿途可欣賞褐樹蛙、斯文豪氏赤蛙與柑橘鳳蝶、短腹幽蟌、薄翅蜻蜓、無尾鳳蝶及台灣紫嘯鶇、鉛色水鶇、台灣獼猴等，來回約2小時，不會覺得太疲累。 為保留自然生態，沿途除兩座越溪吊橋、兩小段木梯搭建的陡峭路段，其餘大多就地取材，利用黑石板、原木鋪設而成。前段的木屑步道，是以鋸木剩下的小木片鋪成的，走起來很舒適，還不時散放出原木的芳香氣味，更是吸取芬多精及陰離子的好地方。步道旁有林蔭與溪水，走起來清爽、自在，不需涉水就能抵達瀑布。步道盡頭還有觀瀑平台（距離瀑布僅六、七十公尺），可近距離體驗瀑布傾瀉而下的磅礡氣勢，瀑布飛濺的水花所產生的陰離子特別多，有亞熱帶雨林的景致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣冬山鄉中山村新寮二路盡頭 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9580169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/392</t>
+  </si>
+  <si>
+    <t>梅花湖風景區位於冬山鄉中部，距離羅東火車站很近，堪稱交通便利，鄰近有中山茶園、中山瀑布、仁山植物園、台灣道教總廟三清宮等著名景點。
+&lt;br&gt;&lt;br&gt;
+梅花湖是天然的蓄水池，三面環山，以前又名大埤、鏡湖，因湖的形狀像一朵五瓣的梅花，後來改名為梅花湖。梅花湖不僅擁有豐富的湖泊生態，也具備灌溉農田、水資源涵養的效用，是一座美麗的天然水庫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+宜蘭縣冬山鄉得安村大埤路1號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-9617267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+09:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/246</t>
+  </si>
+  <si>
+    <t>一踏進羅東夜市立刻感受到熱鬧萬分的人潮，它的範圍擴及民生路、民權路、公園路、興東路，羅東夜市除了小吃以外，還有平價服飾店、鞋店等，更是羅東市區逛街吃東西的好地方。
+由於小吃大部分集中在公園路上，有著公園小吃的俗稱，放眼望去，到處有人排隊等著餐點，想要好好享受羅東夜市的美食、不受人潮所苦的話，建議平日造訪，能夠悠閒地逛著夜市。如果只能假日來訪，建議下午4點以後或晚上10點過後，以避開假日人潮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣羅東鎮公園路 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9545102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-02:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/247</t>
+  </si>
+  <si>
+    <t>羅東運動公園坐落於羅東市區，距離羅東火車站約2公里，交通非常方便，並以水、綠、健康為園區設計的三大主題，把自然景觀與運動設施結合，整體設計融合了台灣本土特色和蘭陽的風情，創造出舒適的休閒活動空間。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+宜蘭縣羅東鎮公正路666號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-9872403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/251</t>
+  </si>
+  <si>
+    <t>沿著台7丙往上走，經過長埤湖以後，看見前方冒著白煙、充滿熱氣的地方，便是著名的清水地熱，再往前開便可以來到清水地熱公園。
+&lt;br&gt;&lt;br&gt;
+清水地熱公園位於清水村南側的清水溪谷中，擁有豐富的地熱，屬於鹼性泉，泉水清澈，且泉水溫度高達攝氏95度C，是郊外野餐的好去處。
+&lt;br&gt;&lt;br&gt;
+清水地熱公園原本是舊中油工作站的地熱廣場，在1981年完成台灣第一座地熱發電廠。而現在清水地熱公園的園內設有3個煮食池、2個泡腳池、休息區、販賣部等設施。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+宜蘭縣大同鄉三星路八段501巷139號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9894500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/380</t>
+  </si>
+  <si>
+    <t>鳩之澤溫泉是太平山國家森林遊樂區的中間據點，位於多望溪環繞的幽谷中，以往稱作仁澤，因此有地熱、溫泉等資源，故昔又稱「燒水」，民國九十三年更名為鳩之澤溫泉，周圍山巒青 翠、風光秀麗，多望溪在此呈曲流狀穿越。 鳩之澤溫泉泉質屬弱鹼性碳酸溫泉，水溫可達攝氏一百四十度，水質清澈無硫磺臭味，非常適合沐浴，附近的林間步道可享受森林浴並兼賞鳥。羅東林管處在此設有仁澤山莊提供住宿，設施包括跨越多望溪的鳩澤橋、煮蛋區外圍植栽美化、戶外溫泉SPA池和室內溫泉檜木桶湯屋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭縣大同鄉燒水巷25號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9809806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/3</t>
+  </si>
+  <si>
+    <t>武荖坑溪屬於新城溪水域，河道在此地進入平原，展現出山水交融之風光，昔稱「武荖林泉」，屬「新蘭陽八景」的名勝。武荖坑兩岸坡地氣候適於茶作，武荖茶清香甜美，盛名遠播。區內林木蒼鬱，溪間可見苦花、溪哥、毛蟹等於潺潺溪水中悠然自得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+宜蘭縣蘇澳鎮武荖坑路75號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9952852</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+08:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/8</t>
+  </si>
+  <si>
+    <t>從南方澳人口中「內埤仔」內埤漁港，往港旁高起的學府路往內走去，豁然在眼前出現一灣海岸，在山嵐與海洋的裹覆下顯的寧靜宜人，這裡就是南方澳居民的私家海灣「內埤海灣」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+宜蘭縣蘇澳鎮內埤路(北濱公園旁) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9973421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全天候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://travel.yilan.tw/zh-tw/attraction/details/231</t>
+  </si>
+  <si>
+    <t>位於宜蘭冬山河風景區內的傳統藝術中心，在2017年新增迷霧森林、魚耀隧道等裝置藝術，是個適合闔家大小，一同享受文化之旅的景點。
+&lt;br&gt;&lt;br&gt;
+走進了傳藝中心的園區，彷彿掉進了時光隧道，紅牆黑瓦的街道，融入台灣各地老街的建築風格，街道兩旁設立各種工坊、早期台灣雜貨店等特色店家，在這裡可以看見捏麵人、糖蔥、童玩、布袋戲偶……那些令人想起童年樂趣的東西。
+ &lt;br&gt;&lt;br&gt;
+逛街逛到累了，可以帶著孩子們到親子園區遊玩、放鬆休息，或是吃個台灣特色美食，補充失去的熱量，亦或是到演藝廳坐在台下欣賞戲團的表演，聽著高亢婉轉地唱調，沉浸在其中，因為那逐漸消失的藝術，是文化的傳承。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+宜蘭縣五結鄉季新村五濱路二段201號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03-9508859</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-18:00
+9:00-20:00(7月、8月)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +845,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,12 +869,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,8 +912,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -561,13 +1230,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -592,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -616,285 +1285,785 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="80">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="256">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
       <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="335">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="80">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="112">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="224">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="128">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="80">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="64">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
       <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="224">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="208">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="208">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="208">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
       <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="192">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
       <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="96">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="240">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="224">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
       <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="128">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="160">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
       <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="64">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
       <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="176">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
       <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="160">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="80">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
       <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="64">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
       <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="224">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="19">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
